--- a/data/trans_camb/P2A_lim_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.318718897007336</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>14.7313493998648</v>
+        <v>14.73134939986481</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.264297716498222</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.803767866909763</v>
+        <v>2.002985353479741</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.926287346536896</v>
+        <v>-3.20260303533615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.088959314307644</v>
+        <v>9.306350225559347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.021342175159523</v>
+        <v>0.9721550434551772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4890643703188881</v>
+        <v>0.3182103634947691</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.82241570299276</v>
+        <v>11.70825290758116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.169946826232741</v>
+        <v>2.011093975504758</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2310438355491402</v>
+        <v>-0.3276080013170711</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.79187225579805</v>
+        <v>11.60188716614339</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.007270456375556</v>
+        <v>8.083252756960881</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.155734769219356</v>
+        <v>2.831385471566448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.55295584670677</v>
+        <v>16.90363072970981</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.606707328331918</v>
+        <v>6.325556470462184</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.540107580862843</v>
+        <v>6.20375720966412</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.67017174603074</v>
+        <v>17.91459365896954</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.339265833823617</v>
+        <v>6.125550196962471</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.157688574528207</v>
+        <v>3.813358629788119</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.31157915743121</v>
+        <v>16.58051492114781</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2730880923345461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.212201524133439</v>
+        <v>1.21220152413344</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3644721880549533</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1426279979781833</v>
+        <v>0.1604117173487108</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.246291357374206</v>
+        <v>-0.2554970415589765</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7327852205330312</v>
+        <v>0.7517094237196956</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.07155386457309144</v>
+        <v>0.07639445919626957</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03406968581970882</v>
+        <v>0.01957865796081545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8708766340460534</v>
+        <v>0.8610271126922862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1681055955133649</v>
+        <v>0.1548779795279801</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02360956238594548</v>
+        <v>-0.02842309217149484</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.9254200747357945</v>
+        <v>0.900921501328499</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8215191979603752</v>
+        <v>0.8296663325546719</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3092709464259715</v>
+        <v>0.2922770821911116</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.680540202695329</v>
+        <v>1.716765366467769</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6002185457931528</v>
+        <v>0.5846952283790754</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.58142339976679</v>
+        <v>0.5702828593928553</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.655845685964664</v>
+        <v>1.666446541844849</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5884261230243966</v>
+        <v>0.5805237855081263</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3687587042204327</v>
+        <v>0.3495498980179417</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.504104993140545</v>
+        <v>1.536891381745041</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.460419836003392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.328738110514966</v>
+        <v>7.328738110514964</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.848097563116234</v>
@@ -878,7 +878,7 @@
         <v>1.269669324621156</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.000101062941035</v>
+        <v>7.000101062941037</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8603872152006494</v>
+        <v>0.8821031827417392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.07258486710507585</v>
+        <v>-0.05404179994145579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.518131701771484</v>
+        <v>5.312010597673613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.068246855392055</v>
+        <v>2.133768668599612</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5225152546660848</v>
+        <v>-0.483810137368686</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.900180745870919</v>
+        <v>5.032718007363314</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.958402976575186</v>
+        <v>1.86447274365724</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1614012767391733</v>
+        <v>0.09306391854368144</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.757808483789577</v>
+        <v>5.727890968499366</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.050818654725736</v>
+        <v>4.08795085433173</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.940110134388652</v>
+        <v>3.13048591397152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.2118177137705</v>
+        <v>9.086544027214389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.828234691992915</v>
+        <v>5.705768200953143</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.657195616521769</v>
+        <v>2.590204432142344</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.451749581434832</v>
+        <v>8.275261909613201</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.339406538752364</v>
+        <v>4.302606617418501</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.394338222393126</v>
+        <v>2.323927894523576</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.235557739784429</v>
+        <v>8.297535901599232</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2972116311435319</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.491479473471669</v>
+        <v>1.491479473471668</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.7212897843639025</v>
@@ -983,7 +983,7 @@
         <v>0.2480976624818273</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.367843325166909</v>
+        <v>1.36784332516691</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1560147233941617</v>
+        <v>0.1339870783705926</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01549161084350358</v>
+        <v>-0.01009242777767462</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9456357828310062</v>
+        <v>0.9124948256824988</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3334776026015742</v>
+        <v>0.3280002879800623</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07803703160974046</v>
+        <v>-0.07866406839932717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.754670069179903</v>
+        <v>0.8012945706539009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3411778238963048</v>
+        <v>0.3144029526773381</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02861201982018364</v>
+        <v>0.01692305700745082</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.00807849428115</v>
+        <v>0.9803914672768812</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9711279613580014</v>
+        <v>0.9413564779155755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7053389422320429</v>
+        <v>0.7352449459499332</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.191714018777592</v>
+        <v>2.179144029428592</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.278059832311339</v>
+        <v>1.263848895739752</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6051053876952091</v>
+        <v>0.57160101442999</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.889355120977358</v>
+        <v>1.905149943968053</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9560022455712287</v>
+        <v>0.9210830832571627</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5363480948430021</v>
+        <v>0.5170565468067213</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.8391543888465</v>
+        <v>1.888414089064548</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.4383633448372767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.408521899767955</v>
+        <v>5.408521899767953</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.029815090966312</v>
@@ -1092,7 +1092,7 @@
         <v>-0.1329215671721021</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.852410609218219</v>
+        <v>3.852410609218218</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.510118425179153</v>
+        <v>-1.176203850968366</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.102083956081058</v>
+        <v>-2.126621058149399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.291709436855033</v>
+        <v>2.324969202554889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.097172359403758</v>
+        <v>-1.199569081342649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.586533729029216</v>
+        <v>-3.7918787488656</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.071549578382125</v>
+        <v>-0.6838604232056503</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5862929047562834</v>
+        <v>-0.531087776950829</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.17356552572648</v>
+        <v>-1.928880298352983</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.728426722597599</v>
+        <v>1.787694399560336</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.189515611617757</v>
+        <v>4.458147328116039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.768748430225841</v>
+        <v>2.872869445856036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.328417076452885</v>
+        <v>8.167037801994075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.76918388937976</v>
+        <v>5.723348069776945</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.014703048842468</v>
+        <v>1.855408831637053</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.648823056774584</v>
+        <v>4.782587512550581</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.068717757021059</v>
+        <v>4.196065686984764</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.77031863141768</v>
+        <v>1.759100715071751</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.920595129358454</v>
+        <v>5.95477512825112</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.02870358100246013</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8319039741177557</v>
+        <v>0.8319039741177554</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3125669544088182</v>
+        <v>-0.2971252786480508</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4436153935370471</v>
+        <v>-0.4659191713764231</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4311489903564359</v>
+        <v>0.3764096821797077</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1836802717437678</v>
+        <v>-0.2003731685836311</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4939443866365119</v>
+        <v>-0.530341558249512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.154881035250349</v>
+        <v>-0.09016636819036281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1234855494111867</v>
+        <v>-0.09905414260900823</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3724215435634936</v>
+        <v>-0.3421496028000626</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2797517113519771</v>
+        <v>0.3064778222175707</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.579771950121601</v>
+        <v>1.766683208250142</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.17711240684645</v>
+        <v>1.13500323921771</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.319424604076992</v>
+        <v>3.119596874487788</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.279081556629881</v>
+        <v>1.322066965296039</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5136436281285726</v>
+        <v>0.4743711858952753</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.182217339692853</v>
+        <v>1.188960480763448</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.075345330983738</v>
+        <v>1.157169610896601</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4876190980818836</v>
+        <v>0.5108813716238723</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.609801127897562</v>
+        <v>1.658175325758615</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.514748706311732</v>
+        <v>1.583376486818086</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8819974695990147</v>
+        <v>-0.7488557723443187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.412262865766007</v>
+        <v>5.4391253690826</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.871583476392861</v>
+        <v>2.064133841644942</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6405236235123876</v>
+        <v>-0.7553926267955238</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.995833428736515</v>
+        <v>5.132903149522015</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.066747507744786</v>
+        <v>2.219211147833588</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.444921867113692</v>
+        <v>-0.4132907021366825</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.676432177386282</v>
+        <v>5.75898770306439</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.372642439333469</v>
+        <v>4.270577472910813</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.676988354324492</v>
+        <v>1.791685147092877</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.45600918520044</v>
+        <v>8.340585880556537</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.856288621740587</v>
+        <v>4.886071336650503</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.078765122598172</v>
+        <v>2.156389912735648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.829057756543636</v>
+        <v>7.887565850160541</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.217375036315774</v>
+        <v>4.183368282123191</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.424927740985905</v>
+        <v>1.422913729290257</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.602759941084002</v>
+        <v>7.67815750552385</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2040424436067672</v>
+        <v>0.2181629797360231</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1185913711762925</v>
+        <v>-0.09950703539082932</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7494675123841746</v>
+        <v>0.7375493456463023</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2118522016109058</v>
+        <v>0.2400560757071336</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07245828297269546</v>
+        <v>-0.0902502078917258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5610252027112489</v>
+        <v>0.5849476792762759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2665996179439382</v>
+        <v>0.2857528784434193</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05702021069210167</v>
+        <v>-0.05291036162666583</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7100544141343138</v>
+        <v>0.7285732726638817</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7158655231467347</v>
+        <v>0.7073024270972981</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2853520542003912</v>
+        <v>0.3037943037350523</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.395416632593006</v>
+        <v>1.391612105614876</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6496191818283247</v>
+        <v>0.6656902247365504</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2835997715973108</v>
+        <v>0.2962869770338069</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.07016270026463</v>
+        <v>1.079012120856301</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6090448245286989</v>
+        <v>0.6084829382510517</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2073118306561023</v>
+        <v>0.2030273739111712</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.08676001910829</v>
+        <v>1.107823221315275</v>
       </c>
     </row>
     <row r="28">
